--- a/data/login_test.xlsx
+++ b/data/login_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>E-mail hoặc số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>ko hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -1229,13 +1232,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="44.1111111111111" customWidth="1"/>
@@ -1292,6 +1295,17 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/login_test.xlsx
+++ b/data/login_test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>ko hợp lệ</t>
+  </si>
+  <si>
+    <t>Quý khách vui lòng nhập mật khẩu</t>
+  </si>
+  <si>
+    <t>Quý khách vui lòng nhập e-mail hoặc điện thoại</t>
   </si>
 </sst>
 </file>
@@ -1232,13 +1238,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="44.1111111111111" customWidth="1"/>
@@ -1308,11 +1314,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="nguyentrongminh22012004@gmail.com"/>
     <hyperlink ref="A3" r:id="rId1" display="nguyentrongminh22012004@gmail.com"/>
     <hyperlink ref="A4" r:id="rId2" display="nguyenminh12@gmail.com" tooltip="mailto:nguyenminh12@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId1" display="nguyentrongminh22012004@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
